--- a/桌面/基金筛选/基金筛选/混合债券型二级基金（截至11.30）.xlsx
+++ b/桌面/基金筛选/基金筛选/混合债券型二级基金（截至11.30）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\基金筛选\基金筛选\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2AA72C-2351-4BEE-A71A-34F1924031E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E565E769-297B-4CC8-BC2D-C8FE25CA63AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3642,8 +3642,8 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:AD424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70:B89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB74" sqref="A74:AB74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -15932,7 +15932,7 @@
         <v>22.6</v>
       </c>
       <c r="AD133" s="21">
-        <f t="shared" ref="AD133:AD164" si="3">AB133/2+AC133/2</f>
+        <f t="shared" ref="AD133:AD142" si="3">AB133/2+AC133/2</f>
         <v>22.6</v>
       </c>
     </row>
